--- a/assets/report/ed20-03status.xlsx
+++ b/assets/report/ed20-03status.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usdhs.sharepoint.com/teams/ED20-03DNSServerVulnerability/Shared Documents/General/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C10CA7E-CC84-45D9-9BB1-005BFD95B694}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Ku37gzL+0Tl9Utdzm+URN43EyGokVHoC6WpPwbm4OQQe2OJO9VGGxYa+6sfVcC/JMuL3Y7j3hje2/fKzfeA5og==" workbookSaltValue="tcVltyc14KPmFntq8OA/xA==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{1809D0C4-A1E4-465E-BA8D-5714C0B6B93F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{642F4471-FE13-49A0-BC20-B758BD4350F1}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="GbgJdPLISTvA0flN7CaV0p7uQHunkzbQpGqOKXwvQV1SWX3bDih/jMPRkt1C1h5h0MOIY99n0w/dEfnQKpGd1Q==" workbookSaltValue="PR4LErit49t9DW+VAIUIKw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{43BE04D5-1558-46B0-95F8-19BC767BB077}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Dropdown" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="Responses" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,9 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,203 +34,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
   <si>
     <t xml:space="preserve"> Emergency Directive 20-03 – Mitigate Windows DNS Server Remote Code Execution Vulnerability from July 2020 Patch Tuesday</t>
   </si>
   <si>
+    <t>STATUS REPORT (v1.2)</t>
+  </si>
+  <si>
+    <t>Agency Name:</t>
+  </si>
+  <si>
+    <t>Point of Contact (POC) Name:</t>
+  </si>
+  <si>
+    <t>POC Email Address:</t>
+  </si>
+  <si>
+    <t>POC Phone Number:</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">INITIAL STATUS REPORT </t>
+      <t xml:space="preserve">Instructions:
+The Status Report is requested for agencies that did not have all ED requirements complete by the deadline. </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(v1.1)</t>
-    </r>
-  </si>
-  <si>
-    <t>Agency Name:</t>
-  </si>
-  <si>
-    <t>Point of Contact (POC) Name:</t>
-  </si>
-  <si>
-    <t>POC Email Address:</t>
-  </si>
-  <si>
-    <t>POC Phone Number:</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Instructions:
-Initial Status Report is due </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>7/20/20.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>If your agency has completed all actions, please go directly to the Completion Report below.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Submit encrypted document to CyberDirectives@cisa.dhs.gov. If password protected, passwords can be sent in a separate email. Please reach out to CyberDirectives@cisa.dhs.gov with any questions, comments, or concerns as you complete this form.</t>
     </r>
   </si>
   <si>
-    <t>1. Estimated total number of endpoints running the Microsoft Windows Server operating system (include all server OS versions and both virtual and physical instances).</t>
-  </si>
-  <si>
-    <t>2. Estimated number of endpoints with July 2020 Security Update applied.</t>
-  </si>
-  <si>
-    <t>3. Estimated number of endpoints with the registry modification workaround in place.</t>
-  </si>
-  <si>
-    <t>4. Remaining endpoints with no mitigations in place (July 2020 Security Update or registry modification workaround).</t>
-  </si>
-  <si>
-    <t>(Please note this field is automatically calculated)</t>
-  </si>
-  <si>
-    <t>5. Are there any Microsoft Windows Servers that are out of scope? Please provide more information and provide the number of servers that are out of scope.</t>
-  </si>
-  <si>
-    <t>6. Please provide any additional information on constraints impacting your agency's ability to update all endpoints, as well as support needs, observed challenges, and technical issues.</t>
-  </si>
-  <si>
-    <t>7. Is there anything CISA can do to help support the completion of these updates?</t>
+    <t>(A) All Windows Server instances</t>
   </si>
   <si>
     <t xml:space="preserve">  Please select Yes to confirm that the responses provided are submitted at the department level and include all agency subcomponents. If not, please coordinate within subcomponents to send one report.</t>
-  </si>
-  <si>
-    <t>COMPLETION REPORT</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Instructions:
-Completion Report is due </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>7/24/20</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (attestation of completed actions required). </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Submit encrypted document to CyberDirectives@cisa.dhs.gov. If password protected, passwords can be sent in a separate email.</t>
-    </r>
-  </si>
-  <si>
-    <t>8. Total number of endpoints running the Windows Server operating system (include all server OS versions and both virtual and physical instances).</t>
-  </si>
-  <si>
-    <t>9. Total number of affected endpoints with July 2020 Security Update applied.</t>
-  </si>
-  <si>
-    <t>10. If previously needed, have all applied registry modification workarounds been removed? (if applicable)</t>
-  </si>
-  <si>
-    <t>11. If you answered 'No' to above, how many endpoints still have the registry modification workaround in place and update not applied?</t>
-  </si>
-  <si>
-    <t>12. Remaining endpoints with no mitigations in place (July 2020 Security Update or registry modification workaround).</t>
-  </si>
-  <si>
-    <t>13. Total percent of endpoints that have the July 2020 Security Update in place.</t>
-  </si>
-  <si>
-    <t>14. Does your agency enterprise currently have the management and/or technical controls in place to ensure that all newly provisioned or previously disconnected servers are updated before connecting to agency networks?</t>
-  </si>
-  <si>
-    <t>14a. If Yes</t>
-  </si>
-  <si>
-    <t>Please describe the controls in place.</t>
-  </si>
-  <si>
-    <t>14b. If No</t>
-  </si>
-  <si>
-    <t>Please describe planned controls.</t>
-  </si>
-  <si>
-    <t>15. Please provide any updates to your previous answers to questions 5, 6, and 7</t>
   </si>
   <si>
     <r>
       <rPr>
         <i/>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">  [Only confirm once all actions are complete]</t>
     </r>
     <r>
       <rPr>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Please confirm that your agency has completed all actions required under ED 20-03.</t>
     </r>
@@ -244,10 +99,10 @@
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
+        <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Agency CIO or equivalent signature
 (Please type name)</t>
@@ -575,13 +430,22 @@
     <t>POCPhoneNumber</t>
   </si>
   <si>
-    <t>Initial_Dept</t>
-  </si>
-  <si>
-    <t>14a</t>
-  </si>
-  <si>
-    <t>14b</t>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>1B</t>
+  </si>
+  <si>
+    <t>2A</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>3A</t>
+  </si>
+  <si>
+    <t>3B</t>
   </si>
   <si>
     <t>Completion_Dept</t>
@@ -591,102 +455,144 @@
   </si>
   <si>
     <t>Signature</t>
+  </si>
+  <si>
+    <t>(B) Of overall instances in (A), Windows Servers with DNS Role Enabled</t>
+  </si>
+  <si>
+    <t>7)  Estimated completion date for ED 20-03 Required Actions 1 and 2.</t>
+  </si>
+  <si>
+    <t>8)  Please provide your internal POAM ID(s) used for tracking agency non-compliance with ED 20-03.</t>
+  </si>
+  <si>
+    <t>9)  Please provide any additional comments including constraints impacting your agency's ability to patch all affected endpoints, support needs, observations, challenges, and technical issues.</t>
+  </si>
+  <si>
+    <t>6a)  Please describe the controls (in place or planned).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(This field is automatically calculated) </t>
+  </si>
+  <si>
+    <t>5)  Remaining endpoints with no mitigations in place (July 2020 Security Update). (X=Q1-Q2-Q3)</t>
+  </si>
+  <si>
+    <t>4A</t>
+  </si>
+  <si>
+    <t>4B</t>
+  </si>
+  <si>
+    <t>5A</t>
+  </si>
+  <si>
+    <t>5B</t>
+  </si>
+  <si>
+    <t>6A</t>
+  </si>
+  <si>
+    <t>6)  Does your agency currently have management or technical controls in place to ensure that all newly provisioned and/or previously disconnected endpoints have applied the patch before being connected to production environments across all components?</t>
+  </si>
+  <si>
+    <t>1)  Total number of endpoints running the Windows Server operating system (include all server OS versions and both virtual and physical instances).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2)  Total number of endpoints running the Windows Server operating system </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>WITH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> the July 2020 Security Update applied.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3) Total number of endpoints running the Windows Server operating system </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>REMOVED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> from the network.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4) Total number of remaining endpoints running the Windows Server operating systems </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>WITHOUT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> the July 2020 Security Update, but </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>WITH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> the temporary registry modification workaround in place.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="0"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="0"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="14"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -697,38 +603,55 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="2" tint="-0.749992370372631"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color rgb="FF005288"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FF005288"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF005288"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -758,13 +681,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF005288"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,21 +698,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -861,26 +769,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -942,19 +830,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -974,203 +849,214 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="5" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="16" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="6" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1195,15 +1081,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1523999</xdr:colOff>
+      <xdr:colOff>1390650</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>19250</xdr:rowOff>
+      <xdr:rowOff>12668</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>95248</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2552700</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>245468</xdr:rowOff>
+      <xdr:rowOff>220214</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1226,8 +1112,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10286999" y="840781"/>
-          <a:ext cx="1381125" cy="1381125"/>
+          <a:off x="10163175" y="565118"/>
+          <a:ext cx="1162050" cy="1160046"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1539,478 +1425,342 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:J45"/>
+  <dimension ref="B1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="39.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="44.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="42.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="3.140625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="3.140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="33.85546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="39" style="7" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="3.140625" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="20.25">
-      <c r="B2" s="48" t="s">
+    <row r="1" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="2:10" ht="29.25" customHeight="1">
-      <c r="B3" s="38" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="2:10" s="5" customFormat="1" ht="15.75">
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="2:10" s="5" customFormat="1" ht="18.75">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="2"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="11"/>
       <c r="G5" s="9"/>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="2:10" s="5" customFormat="1" ht="18.75">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="10"/>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="2:10" s="5" customFormat="1" ht="18.75">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="10"/>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="2:10" s="5" customFormat="1" ht="18.75">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="12"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="10"/>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="2:10" s="5" customFormat="1" ht="78.75" customHeight="1">
-      <c r="B9" s="43" t="s">
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="2:10" s="5" customFormat="1" ht="15.75">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="2:10" ht="59.25" customHeight="1">
-      <c r="B11" s="36" t="s">
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="13"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="2:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12" spans="2:10" ht="42" customHeight="1">
-      <c r="B12" s="36" t="s">
+      <c r="F11" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="24"/>
+    </row>
+    <row r="13" spans="2:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="24"/>
+    </row>
+    <row r="14" spans="2:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="24"/>
+    </row>
+    <row r="15" spans="2:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="24"/>
+    </row>
+    <row r="16" spans="2:10" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B16" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="18">
+        <f>E12-E13-E14</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="18">
+        <f>F12-F13-F14</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="28"/>
+    </row>
+    <row r="20" spans="2:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+    </row>
+    <row r="21" spans="2:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="47"/>
+    </row>
+    <row r="22" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+    </row>
+    <row r="23" spans="2:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="51"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+    </row>
+    <row r="25" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-    </row>
-    <row r="13" spans="2:10" ht="42" customHeight="1">
-      <c r="B13" s="36" t="s">
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+    </row>
+    <row r="27" spans="2:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="38"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-    </row>
-    <row r="14" spans="2:10" ht="42" customHeight="1">
-      <c r="B14" s="36" t="s">
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+    </row>
+    <row r="28" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="29">
-        <f>E11-E12-E13</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="18" t="s">
+      <c r="C28" s="36"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" spans="2:10" ht="57.75" customHeight="1">
-      <c r="B15" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="33"/>
-    </row>
-    <row r="16" spans="2:10" ht="77.25" customHeight="1">
-      <c r="B16" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="33"/>
-    </row>
-    <row r="17" spans="1:10" ht="77.25" customHeight="1">
-      <c r="B17" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="33"/>
-    </row>
-    <row r="18" spans="1:10" s="5" customFormat="1" ht="15.75">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="8"/>
-      <c r="J18" s="6"/>
-    </row>
-    <row r="19" spans="1:10" ht="40.5" customHeight="1">
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-    </row>
-    <row r="21" spans="1:10" ht="24.75" customHeight="1">
-      <c r="B21" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-    </row>
-    <row r="22" spans="1:10" ht="61.5" customHeight="1">
-      <c r="A22" s="5"/>
-      <c r="B22" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-    </row>
-    <row r="23" spans="1:10" ht="18.75">
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-    </row>
-    <row r="24" spans="1:10" ht="44.25" customHeight="1">
-      <c r="B24" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-    </row>
-    <row r="25" spans="1:10" ht="36" customHeight="1">
-      <c r="B25" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" spans="1:10" ht="44.25" customHeight="1">
-      <c r="B26" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="12"/>
-    </row>
-    <row r="27" spans="1:10" ht="44.25" customHeight="1">
-      <c r="B27" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-    </row>
-    <row r="28" spans="1:10" ht="44.25" customHeight="1">
-      <c r="B28" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="29">
-        <f>E24-E25-E27</f>
-        <v>0</v>
-      </c>
-      <c r="F28" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="36" customHeight="1">
-      <c r="B29" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="30" t="str">
-        <f>IF(OR(ISBLANK(E24),ISBLANK(E25)),"",E25/E24)</f>
-        <v/>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="11"/>
-    </row>
-    <row r="30" spans="1:10" ht="62.25" customHeight="1">
-      <c r="B30" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-    </row>
-    <row r="31" spans="1:10" ht="35.25" customHeight="1">
-      <c r="B31" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="47"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="53"/>
-    </row>
-    <row r="32" spans="1:10" ht="35.25" customHeight="1">
-      <c r="B32" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="37"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="53"/>
-    </row>
-    <row r="33" spans="1:7" ht="15.75">
-      <c r="A33" s="5"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="8"/>
-    </row>
-    <row r="34" spans="1:7" ht="53.25" customHeight="1">
-      <c r="B34" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="53"/>
-    </row>
-    <row r="35" spans="1:7" ht="18.75">
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-    </row>
-    <row r="36" spans="1:7" ht="18.75">
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-    </row>
-    <row r="37" spans="1:7" ht="41.25" customHeight="1">
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
-    </row>
-    <row r="39" spans="1:7" ht="44.25" customHeight="1">
-      <c r="B39" s="54"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="B41" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="C41" s="58"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="B42" s="58"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="23"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="B43" s="58"/>
-      <c r="C43" s="58"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="B44" s="58"/>
-      <c r="C44" s="58"/>
-    </row>
-    <row r="45" spans="1:7" ht="18.75">
-      <c r="B45" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C45" s="24"/>
+      <c r="C31" s="21"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="PAUXyQFrYaMKVjYDcwli0HL61R9BgTTO26XVRuZUfnmiyA6VAtUFRJbFO2B2+uCMGI1jJfAfQ4BNJLEn0RMC8g==" saltValue="Ss5917ESxcAdmJst1cmv6g==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertHyperlinks="0"/>
-  <mergeCells count="39">
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="B41:C44"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="B11:D11"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Gq+nexGaTHKIf2148q0HtEz+b2yg4N0SKPV4SAy8h09Ks2Gocj8bhx2eVEYjjp+aCQynJqf/+0S1jiR+i1nCZw==" saltValue="NJ8HfZmQIInTpz5VoimxaA==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertHyperlinks="0"/>
+  <mergeCells count="25">
+    <mergeCell ref="B28:C30"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="B15:D15"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B15:D15"/>
     <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="B18:D18"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="B3:G3"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B14:D14"/>
   </mergeCells>
-  <dataValidations count="7">
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Response" error="Please enter numerical response._x000a_" sqref="E11:E13 E24:E25 E27" xr:uid="{E5CD4624-D8DD-4D6C-8469-43D7539C2B86}">
+  <dataValidations count="9">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Response" error="Please enter numerical response._x000a_" sqref="F16 E12:F15 E16" xr:uid="{E5CD4624-D8DD-4D6C-8469-43D7539C2B86}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Response" error="Please enter numerical response." sqref="B11:B13 B30:B32 B24:B27" xr:uid="{B2E881A9-3A41-4987-B239-F63A4D9FD7DE}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Response" error="Please select Yes to confirm." sqref="B19 B23 B37" xr:uid="{DD327FF3-8ADB-47CC-89E4-72C9D307FB18}">
+    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Response" error="Please enter numerical response." sqref="B20 B12:B15 B17" xr:uid="{B2E881A9-3A41-4987-B239-F63A4D9FD7DE}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Response" error="Please select Yes to confirm." sqref="B11 B25" xr:uid="{DD327FF3-8ADB-47CC-89E4-72C9D307FB18}">
       <formula1>"Yes"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Response" error="Please select or enter 'Yes' or 'No'" sqref="E30" xr:uid="{BA190630-D165-4DD5-AD02-C918448A7D9E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Response" error="Please confirm using dropdown." sqref="B27:C27" xr:uid="{AE5D96EC-CAA7-44F5-AD2D-271191A93120}">
+      <formula1>"Confirmed all ED 20-03 actions are completed"</formula1>
+    </dataValidation>
+    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Response" error="Please enter numerical response._x000a_If EOS does not include any instances on HVAs, leave this field blank." sqref="B24:E24 B21:B23" xr:uid="{C9FE1281-9B35-4C57-8B3C-AC533277651B}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Response" error="Please select or enter 'Yes' or 'No'" sqref="E17" xr:uid="{A8920775-4CDD-49E7-A6F5-64F2AF7F736A}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Response" error="Please confirm using dropdown." sqref="B39:C39" xr:uid="{AE5D96EC-CAA7-44F5-AD2D-271191A93120}">
-      <formula1>"Confirmed all ED 20-03 actions are completed"</formula1>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Response" error="Please enter date in MM/DD/YYYY format." sqref="E20" xr:uid="{A81DECD5-D512-4CD7-B9B3-92940830AECE}">
+      <formula1>44013</formula1>
     </dataValidation>
-    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Response" error="Please enter numerical response._x000a_If EOS does not include any instances on HVAs, leave this field blank." sqref="B35:E36" xr:uid="{C9FE1281-9B35-4C57-8B3C-AC533277651B}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Response" error="Please select from dropdown options." sqref="E26" xr:uid="{BAB4902B-5A8E-4631-BB16-6A0C618DF87A}">
-      <formula1>"Yes, No, Did not apply workaround"</formula1>
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="E23:G23" xr:uid="{4A54E176-F3CC-4487-B00A-5F4405BAA71F}"/>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Response" error="Please enter date response using MM/DD/YYYY format." sqref="E20" xr:uid="{D989C4B4-3482-404C-BE0C-EA5023BFB202}">
+      <formula1>44013</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2037,519 +1787,519 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="74.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
-      <c r="A75" t="s">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="s">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
-      <c r="A78" t="s">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" t="s">
-        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2559,90 +2309,86 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1556B97-0C0F-48D3-A1D6-5EC0011C6830}">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="17" max="17" width="9.140625" style="6"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="M1" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="N1" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="O1" s="2">
+        <v>6</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E1" s="20">
-        <v>1</v>
-      </c>
-      <c r="F1" s="20">
-        <v>2</v>
-      </c>
-      <c r="G1" s="20">
-        <v>3</v>
-      </c>
-      <c r="H1" s="20">
-        <v>4</v>
-      </c>
-      <c r="I1" s="20">
-        <v>5</v>
-      </c>
-      <c r="J1" s="20">
-        <v>6</v>
-      </c>
-      <c r="K1" s="20">
+      <c r="Q1" s="5">
         <v>7</v>
       </c>
-      <c r="L1" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="M1" s="20">
+      <c r="R1" s="2">
         <v>8</v>
       </c>
-      <c r="N1" s="20">
+      <c r="S1" s="2">
         <v>9</v>
       </c>
-      <c r="O1" s="20">
-        <v>10</v>
-      </c>
-      <c r="P1" s="20">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="20">
-        <v>12</v>
-      </c>
-      <c r="R1" s="20">
-        <v>13</v>
-      </c>
-      <c r="S1" s="20">
-        <v>14</v>
-      </c>
-      <c r="T1" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="U1" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="V1" s="20">
-        <v>15</v>
-      </c>
-      <c r="W1" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="X1" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y1" s="20" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="T1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>IF('ED 20-03'!D5="","",'ED 20-03'!D5)</f>
         <v/>
@@ -2659,88 +2405,76 @@
         <f>IF('ED 20-03'!D8="","",'ED 20-03'!D8)</f>
         <v/>
       </c>
-      <c r="E2" s="28">
-        <f>'ED 20-03'!E11</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="28">
+      <c r="E2" s="4">
         <f>'ED 20-03'!E12</f>
         <v>0</v>
       </c>
-      <c r="G2" s="28">
+      <c r="F2" s="4">
+        <f>'ED 20-03'!F12</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
         <f>'ED 20-03'!E13</f>
         <v>0</v>
       </c>
-      <c r="H2" s="28">
+      <c r="H2" s="4">
+        <f>'ED 20-03'!F13</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
         <f>'ED 20-03'!E14</f>
         <v>0</v>
       </c>
-      <c r="I2" t="str">
-        <f>IF('ED 20-03'!E15="","",'ED 20-03'!E15)</f>
-        <v/>
-      </c>
-      <c r="J2" t="str">
-        <f>IF('ED 20-03'!E16="","",'ED 20-03'!E16)</f>
-        <v/>
-      </c>
-      <c r="K2" t="str">
+      <c r="J2" s="4">
+        <f>'ED 20-03'!F14</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
+        <f>'ED 20-03'!E15</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
+        <f>'ED 20-03'!F15</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="3">
+        <f>'ED 20-03'!E16</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="3">
+        <f>'ED 20-03'!F16</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="3" t="str">
         <f>IF('ED 20-03'!E17="","",'ED 20-03'!E17)</f>
         <v/>
       </c>
-      <c r="L2" t="str">
-        <f>IF('ED 20-03'!B19="","",'ED 20-03'!B19)</f>
+      <c r="P2" s="3" t="str">
+        <f>IF('ED 20-03'!E18="","",'ED 20-03'!E18)</f>
         <v/>
       </c>
-      <c r="M2" s="28">
-        <f>'ED 20-03'!E24</f>
-        <v>0</v>
-      </c>
-      <c r="N2" s="28">
-        <f>'ED 20-03'!E25</f>
-        <v>0</v>
-      </c>
-      <c r="O2" s="28" t="str">
-        <f>IF('ED 20-03'!E26="","",'ED 20-03'!E26)</f>
+      <c r="Q2" s="26" t="str">
+        <f>IF('ED 20-03'!E20="","",'ED 20-03'!E20)</f>
         <v/>
       </c>
-      <c r="P2" s="28">
-        <f>'ED 20-03'!E27</f>
-        <v>0</v>
-      </c>
-      <c r="Q2" s="28">
-        <f>'ED 20-03'!E28</f>
-        <v>0</v>
-      </c>
-      <c r="R2" s="27" t="str">
-        <f>'ED 20-03'!E29</f>
+      <c r="R2" s="4" t="str">
+        <f>IF('ED 20-03'!E21="","",'ED 20-03'!E21)</f>
         <v/>
       </c>
-      <c r="S2" s="25" t="str">
-        <f>IF('ED 20-03'!E30="","",'ED 20-03'!E30)</f>
+      <c r="S2" s="4" t="str">
+        <f>IF('ED 20-03'!E23="","",'ED 20-03'!E23)</f>
         <v/>
       </c>
-      <c r="T2" s="25" t="str">
-        <f>IF('ED 20-03'!E31="","",'ED 20-03'!E31)</f>
+      <c r="T2" t="str">
+        <f>IF('ED 20-03'!B25="","",'ED 20-03'!B25)</f>
         <v/>
       </c>
-      <c r="U2" s="25" t="str">
-        <f>IF('ED 20-03'!E32="","",'ED 20-03'!E32)</f>
+      <c r="U2" t="str">
+        <f>IF('ED 20-03'!B27="","",'ED 20-03'!B27)</f>
         <v/>
       </c>
-      <c r="V2" s="25" t="str">
-        <f>IF('ED 20-03'!E34="","",'ED 20-03'!E34)</f>
-        <v/>
-      </c>
-      <c r="W2" t="str">
-        <f>IF('ED 20-03'!B37="","",'ED 20-03'!B37)</f>
-        <v/>
-      </c>
-      <c r="X2" t="str">
-        <f>IF('ED 20-03'!B39="","",'ED 20-03'!B39)</f>
-        <v/>
-      </c>
-      <c r="Y2" t="str">
-        <f>IF('ED 20-03'!C45="","",'ED 20-03'!C45)</f>
+      <c r="V2" t="str">
+        <f>IF('ED 20-03'!C31="","",'ED 20-03'!C31)</f>
         <v/>
       </c>
     </row>
@@ -2750,21 +2484,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DE25B5D61D54A247A131059D9B10ABFF" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="87d0375e81be4c4256f11692e0423b70">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="93c50bcf-b18f-47fd-9b4d-5a26d18947d0" xmlns:ns3="8a01a930-3a34-46d2-bfa9-a84d50c3231c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4b7edacf314924370e5a1cd34d89f971" ns2:_="" ns3:_="">
     <xsd:import namespace="93c50bcf-b18f-47fd-9b4d-5a26d18947d0"/>
@@ -2929,14 +2648,61 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DDDFF29-7DC9-475D-9061-0D330ED99F2C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAEAF208-7529-4908-98CC-50A76CB2698B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="93c50bcf-b18f-47fd-9b4d-5a26d18947d0"/>
+    <ds:schemaRef ds:uri="8a01a930-3a34-46d2-bfa9-a84d50c3231c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CCB811C-1C55-4D17-A068-C76E0006C20C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DDDFF29-7DC9-475D-9061-0D330ED99F2C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="8a01a930-3a34-46d2-bfa9-a84d50c3231c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="93c50bcf-b18f-47fd-9b4d-5a26d18947d0"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14FFD6A2-B5C0-4220-84E3-0B960F1F7CF0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CCB811C-1C55-4D17-A068-C76E0006C20C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>